--- a/dmsan/reclaimer/scores/Uganda/sys_uncertainties.xlsx
+++ b/dmsan/reclaimer/scores/Uganda/sys_uncertainties.xlsx
@@ -44287,7 +44287,7 @@
         <v>9.187019068678074</v>
       </c>
       <c r="I22" t="n">
-        <v>40.32741870426109</v>
+        <v>40.32741870426108</v>
       </c>
     </row>
     <row r="23">
